--- a/searches/sec5_results/outline_5.xlsx
+++ b/searches/sec5_results/outline_5.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,74 +434,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>SECTION</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SUBSECTION</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>POINT</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>QUERY</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>DOI</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>PAPER_TITLE</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>RELEVANCE_SCORE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>FULL_TEXT</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>BIBTEX</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>PDF_LOCATION</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>JOURNAL</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>CITATION_COUNT</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>ADOI_URL</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>document_title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>section_title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>point_text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>full_text</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bibtex</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pdf_location</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>journal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>citation_count</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>relevance_score</t>
         </is>
       </c>
     </row>
@@ -511,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({deep learning} OR {artificial intelligence}) AND ({real-time insights} OR {actionable intelligence}) AND ({irrigation optimization} OR {water productivity}))</t>
+          <t>TITLE-ABS-KEY(({predictive model} OR {machine learning model}) AND ({actionable insights} OR {real-time insights}) AND ({irrigation management} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -520,16 +522,16 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -549,7 +551,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({prediction model} OR {machine intelligence}) AND {irrigation} AND {real-time})</t>
+          <t>TITLE-ABS-KEY(({real-time prediction} OR {online prediction}) AND ({irrigation scheduling} OR {irrigation control}) AND ({decision support} OR {precision irrigation}))</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -558,16 +560,16 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,7 +589,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({predictive modeling} OR {forecasting}) AND ({irrigation automation} OR {autonomous irrigation}) AND ({real-time decision making} OR {low-latency response}))</t>
+          <t>TITLE-ABS-KEY(({streaming data} OR {real-time data}) AND ({predictive analytics} OR {machine learning}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -596,16 +598,16 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,7 +627,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({predictive model} OR {machine learning model}) AND ({actionable insights} OR {real-time insights}) AND ({irrigation management} OR {precision agriculture}))</t>
+          <t>TITLE-ABS(({deep learning} OR {artificial intelligence}) AND ({real-time insights} OR {actionable intelligence}) AND ({irrigation optimization} OR {water productivity}))</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -634,16 +636,16 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -663,7 +665,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({real-time prediction} OR {online prediction}) AND ({irrigation scheduling} OR {irrigation control}) AND ({decision support} OR {precision irrigation}))</t>
+          <t>TITLE-ABS-KEY(({predictive modeling} OR {forecasting}) AND ({irrigation automation} OR {autonomous irrigation}) AND ({real-time decision making} OR {low-latency response}))</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -672,16 +674,16 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,7 +703,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({streaming data} OR {real-time data}) AND ({predictive analytics} OR {machine learning}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
+          <t>TITLE-ABS-KEY(({prediction model} OR {machine intelligence}) AND {irrigation} AND {real-time})</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -710,16 +712,16 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -748,16 +750,16 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -777,7 +779,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({autonomous irrigation} OR {self-adaptive irrigation}) AND ({machine learning pipeline} OR {AI workflow}) AND ({real-time control} OR {dynamic control}))</t>
+          <t>TITLE-ABS-KEY(({automated application} OR {autonomous execution}) AND ({machine learning insights} OR {AI-generated insights}) AND ({irrigation control} OR {irrigation automation}))</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -786,16 +788,16 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -815,7 +817,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({automated application} OR {autonomous execution}) AND ({machine learning insights} OR {AI-generated insights}) AND ({irrigation control} OR {irrigation automation}))</t>
+          <t>TITLE-ABS-KEY(({insight integration} OR {insight operationalization}) AND ({irrigation system} OR {precision irrigation}) AND ({manual intervention} OR {human involvement}))</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -824,16 +826,16 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -862,16 +864,16 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -891,7 +893,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({insight integration} OR {insight operationalization}) AND ({irrigation system} OR {precision irrigation}) AND ({manual intervention} OR {human involvement}))</t>
+          <t>TITLE-ABS(({autonomous irrigation} OR {self-adaptive irrigation}) AND ({machine learning pipeline} OR {AI workflow}) AND ({real-time control} OR {dynamic control}))</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -900,16 +902,16 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -938,16 +940,16 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -976,16 +978,16 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1014,16 +1016,16 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1038,12 +1040,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
+          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({visual analytics} OR {interactive visualization}) AND ({model interpretability} OR {model explainability}) AND ({irrigation optimization} OR {water productivity}))</t>
+          <t>TITLE-ABS-KEY(({interpretability} OR {explainability}) AND ({machine learning models} OR {AI models}) AND ({irrigation management} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1052,16 +1054,16 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1076,12 +1078,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
+          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({feature importance} OR {sensitivity analysis}) AND ({model comprehension} OR {model understanding}) AND ({irrigation scheduling} OR {irrigation control}))</t>
+          <t>TITLE-ABS-KEY(({model transparency} OR {model comprehensibility}) AND ({irrigation scheduling} OR {irrigation control}) AND ({decision support} OR {precision irrigation}))</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1090,16 +1092,16 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1114,12 +1116,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
+          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({interpretability techniques} OR {explainability methods}) AND ({machine learning transparency} OR {AI transparency}) AND ({irrigation management} OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY(({black box models} OR {opaque models}) AND ({trust} OR {confidence}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1128,16 +1130,16 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1152,12 +1154,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
+          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({local interpretation} OR {global interpretation}) AND ({trust building} OR {user confidence}) AND ({irrigation automation} OR {autonomous irrigation}))</t>
+          <t>TITLE-ABS(({interpretable models} OR {explainable models}) AND ({irrigation optimization} OR {water productivity}) AND ({user acceptance} OR {user adoption}))</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1166,16 +1168,16 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1190,12 +1192,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
+          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({rule extraction} OR {decision trees}) AND ({insight interpretation} OR {decision explanation}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
+          <t>TITLE-ABS-KEY(({model interpretability} OR {model explainability}) AND ({irrigation automation} OR {autonomous irrigation}) AND ({stakeholder communication} OR {user interaction}))</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1204,16 +1206,16 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1228,12 +1230,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
+          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY({explainable AI methods} AND {irrigation management})</t>
+          <t>TITLE-ABS-KEY({transparent models} AND {irrigation} AND {user trust})</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1242,16 +1244,16 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1266,12 +1268,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
+          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY({interpretability techniques} AND {machine learning} AND {irrigation})</t>
+          <t>TITLE-ABS-KEY({interpretable AI} AND {irrigation management})</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1280,16 +1282,16 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1304,12 +1306,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
+          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({interpretable models} OR {explainable models}) AND ({irrigation optimization} OR {water productivity}) AND ({user acceptance} OR {user adoption}))</t>
+          <t>TITLE-ABS-KEY(({interpretability techniques} OR {explainability methods}) AND ({machine learning transparency} OR {AI transparency}) AND ({irrigation management} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1318,16 +1320,16 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1342,12 +1344,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
+          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({black box models} OR {opaque models}) AND ({trust} OR {confidence}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
+          <t>TITLE-ABS-KEY(({feature importance} OR {sensitivity analysis}) AND ({model comprehension} OR {model understanding}) AND ({irrigation scheduling} OR {irrigation control}))</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1356,16 +1358,16 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1380,12 +1382,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
+          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({interpretability} OR {explainability}) AND ({machine learning models} OR {AI models}) AND ({irrigation management} OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY(({rule extraction} OR {decision trees}) AND ({insight interpretation} OR {decision explanation}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1394,16 +1396,16 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1418,12 +1420,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
+          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({model interpretability} OR {model explainability}) AND ({irrigation automation} OR {autonomous irrigation}) AND ({stakeholder communication} OR {user interaction}))</t>
+          <t>TITLE-ABS(({visual analytics} OR {interactive visualization}) AND ({model interpretability} OR {model explainability}) AND ({irrigation optimization} OR {water productivity}))</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1432,16 +1434,16 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1456,12 +1458,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
+          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({model transparency} OR {model comprehensibility}) AND ({irrigation scheduling} OR {irrigation control}) AND ({decision support} OR {precision irrigation}))</t>
+          <t>TITLE-ABS-KEY(({local interpretation} OR {global interpretation}) AND ({trust building} OR {user confidence}) AND ({irrigation automation} OR {autonomous irrigation}))</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1470,16 +1472,16 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1494,12 +1496,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
+          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY({interpretable AI} AND {irrigation management})</t>
+          <t>TITLE-ABS-KEY({interpretability techniques} AND {machine learning} AND {irrigation})</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1508,16 +1510,16 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1532,12 +1534,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>â€¢ The importance of interpretability and explainability in ML models used for irrigation management</t>
+          <t>â€¢ Techniques for enhancing the transparency and interpretability of ML models, enabling users to understand and trust the generated insights and decisions</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY({transparent models} AND {irrigation} AND {user trust})</t>
+          <t>TITLE-ABS-KEY({explainable AI methods} AND {irrigation management})</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1546,16 +1548,16 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1575,7 +1577,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({explainability} OR {interpretability}) AND ({user adoption} OR {technology acceptance}) AND ({irrigation optimization} OR {water productivity}))</t>
+          <t>TITLE-ABS-KEY(({explainable AI} OR XAI) AND ({user confidence} OR {user trust}) AND ({automated irrigation} OR {smart irrigation}))</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1584,16 +1586,16 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1613,7 +1615,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({XAI techniques} OR {XAI methods}) AND ({irrigation scheduling} OR {irrigation control}) AND ({decision support} OR {precision irrigation}))</t>
+          <t>TITLE-ABS-KEY(({human-machine collaboration} OR {human-AI interaction}) AND ({irrigation management} OR {precision agriculture}) AND ({explainable models} OR {interpretable models}))</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1622,16 +1624,16 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1651,7 +1653,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({explainable AI} OR XAI) AND ({stakeholder communication} OR {user feedback}) AND ({irrigation automation} OR {autonomous irrigation}))</t>
+          <t>TITLE-ABS-KEY(({XAI techniques} OR {XAI methods}) AND ({irrigation scheduling} OR {irrigation control}) AND ({decision support} OR {precision irrigation}))</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1660,16 +1662,16 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1689,7 +1691,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({explainable AI} OR XAI) AND ({user confidence} OR {user trust}) AND ({automated irrigation} OR {smart irrigation}))</t>
+          <t>TITLE-ABS(({explainability} OR {interpretability}) AND ({user adoption} OR {technology acceptance}) AND ({irrigation optimization} OR {water productivity}))</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1698,16 +1700,16 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1727,7 +1729,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({human-machine collaboration} OR {human-AI interaction}) AND ({irrigation management} OR {precision agriculture}) AND ({explainable models} OR {interpretable models}))</t>
+          <t>TITLE-ABS-KEY(({explainable AI} OR XAI) AND ({stakeholder communication} OR {user feedback}) AND ({irrigation automation} OR {autonomous irrigation}))</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1736,16 +1738,16 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1765,7 +1767,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY({XAI} AND {human-AI collaboration} AND {irrigation management})</t>
+          <t>TITLE-ABS-KEY({explainable AI} AND {user trust} AND {irrigation automation})</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1774,16 +1776,16 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1803,7 +1805,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY({explainable AI} AND {user trust} AND {irrigation automation})</t>
+          <t>TITLE-ABS-KEY({XAI} AND {human-AI collaboration} AND {irrigation management})</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1812,16 +1814,229 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>5. Generating and Applying Irrigation Insights</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5.1 Real-Time Generation of Insights</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>â€¢ Examination of the application of predictive models in generating actionable irrigation insights in real-time</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({prediction model} OR {machine intelligence}) AND {irrigation} AND {real-time})</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10.6041/j.issn.1000-1298.2022.03.039</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Prediction Method of Greenhouse Tomato Transpiration in Early Fruiting Stage Based on RF-GRU</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+农业机械学报
+首页 | 学会首页 | 学报简介 | 投稿须知 | 编委会 | EI收录结果 | 联系我们 | OSID建码 | English | 加入收藏
+李莉,李伟,耿磊,李文军,孙泉,SIGRIMIS N A.基于RF-GRU的温室番茄结果前期蒸腾量预测方法[J].农业机械学报,2022,53(3):368-376.LI Li,LI Wei,GENG Lei,LI Wenjun,SUN Quan,SIGRIMIS N A.Prediction Method of Greenhouse Tomato Transpiration in Early Fruiting Stage Based on RF-GRU[J].Transactions of the Chinese Society for Agricultural Machinery,2022,53(3):368-376.
+摘要点击次数: 854全文下载次数: 286
+基于RF-GRU的温室番茄结果前期蒸腾量预测方法   [下载全文]
+Prediction Method of Greenhouse Tomato Transpiration in Early Fruiting Stage Based on RF-GRU   [Download Pdf][in English]
+投稿时间：2021-12-24  
+DOI：10.6041/j.issn.1000-1298.2022.03.039
+中文关键词:  温室番茄  智慧灌溉  蒸腾量预测  随机森林  门控循环单元
+基金项目:国家重点研发计划项目(2019YFD1001903)和中央高校基本科研业务费专项资金项目(2021TC031)
+作者单位李莉 中国农业大学 李伟 中国农业大学 耿磊 中国农业大学 李文军 中国农业大学 孙泉 中国农业大学 SIGRIMIS N A 雅典农业大学 
+中文摘要:针对温室番茄无法按需灌溉问题，提出了随机森林(Random forest, RF)结合门控循环单元(Gated recurrent unit, GRU)神经网络的温室番茄结果前期蒸腾量预测方法，并开发了一套基于番茄蒸腾量的智慧灌溉系统。基于物联网实时获取数据，采用RF算法对影响温室番茄蒸腾量的变量进行特征重要性排序，选取作物相对叶面积指数、温室内空气温度、相对湿度、光照强度、光合有效辐射、基质含水率和基质温度作为模型的输入变量，在此基础上，构建了基于GRU的番茄蒸腾量预测模型。试验结果表明：RF-GRU在番茄蒸腾量预测中具有准确的预测效果，决定系数(R2)、均方根误差(RMSE)、平均绝对误差(MAE)分别为0.9490、10.96g和5.80g。同时，基于此模型进行指导灌溉相比于定时灌溉，在番茄长势基本相同的情况下，灌溉量降低了20%，可为实际生产提供参考。
+LI Li  LI Wei  GENG Lei  LI Wenjun  SUN Quan  SIGRIMIS N A
+China Agricultural University; Agricultural University of Athens
+Key Words:greenhouse tomato  intelligent irrigation  transpiration prediction  random forest  gated recurrent unit
+Abstract:Taking greenhouse tomatoes as the research object, a forecasting method of transpiration of greenhouse tomatoes was proposed based on the real-time data of the Internet of things and random forest (RF) combined with gated recurrent unit (GRU) neural network. Firstly, the main factors affecting transpiration change collected by the sensor were preprocessed and RF was used to order the characteristic importance of the variables affecting the transpiration of tomato in greenhouse. Crop phenotypic parameters, including relative leaf area index, ecological parameters in greenhouse and cultivation environment parameters, including air temperature, relative humidity, light intensity, photosynthetically active radiation, substrate moisture content and substrate temperature were chosen as the input variables of the model. On this basis, a prediction model based on GRU was established to predict the transpiration of tomato. Finally, this model was compared with other models. At the same time, based on this model, a set of intelligent irrigation equipment was developed, which took the substrate water as the irrigation starting point and the predicted transpiration as the irrigation amount. The experimental results fully showed that the RF-GRU model had accurate prediction effect in tomato transpiration prediction and showed good feature learning ability in agricultural big data mining. The determination coefficient (R2), root mean square error (RMSE), mean absolute error (MAE) were 0.9490, 10.96g and 5.80g, respectively. Compared with RF-LSTM and RF-RNN methods, the R2 was increased by 1.46% and 3.78%, the root mean square error was decreased by 1.38g and 3.24g, and the mean absolute error was decreased by 1.77g and 0.14g, respectively. At the same time, compared with regular irrigation, the intelligent irrigation system designed based on this model reduced the irrigation amount by 20% when the tomato growth was basically the same. This study could provide a reference for the research of greenhouse crop water requirements and it can be applied to water-saving greenhouse irrigation.
+Transactions of the Chinese Society for Agriculture Machinery (CSAM), in charged of China Association for Science and Technology (CAST), sponsored by CSAM and Chinese Academy of Agricultural Mechanization Science(CAAMS), started publication in 1957. It is the earliest interdisciplinary journal in Chinese which combines agricultural and engineering. It always closely grasps the development direction of agriculture engineering disciplines and the published papers represent the highest academic level of agriculture engineering in China. Currently, nearly 8,000 papers have been already published. There are around 3,000 papers contributed to the journal each year, but only around 600 of them will be accepted. Transactions of CSAM focuses on a wide range of agricultural machinery, irrigation, electronics, robotics, agro-products engineering, biological energy, agricultural structures and environment and more. Subjects in Transactions of the CSAM have been embodied by many internationally well-known index systems, such as: EI Compendex, CA, CSA, etc.
+   下载PDF阅读器 
+ 主管单位：中国科学技术协会主办单位：中国农业机械学会;中国农业机械化科学研究院集团有限公司  主编：任露泉地址：北京德胜门外北沙滩1号6信箱  邮政编码：100083电话：64882610
+技术支持：北京勤云科技发展有限公司  京ICP备11001094号-1
+京公网安备 11010502033880号
+</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>C:\Users\bnsoh2\OneDrive - University of Nebraska-Lincoln\Documents\Coding Projects\Automated_Lit_Revs\searches\sec5_results\outline_5\pdfs\10.6041_j.issn.1000-1298.2022.03.039.txt</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Nongye Jixie Xuebao/Transactions of the Chinese Society for Agricultural Machinery</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>5. Generating and Applying Irrigation Insights</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5.1 Real-Time Generation of Insights</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>â€¢ Examination of the application of predictive models in generating actionable irrigation insights in real-time</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({prediction model} OR {machine intelligence}) AND {irrigation} AND {real-time})</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10.13522/j.cnki.ggps.2023047</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Construction of Knowledge Graph Model for Irrigation Water Scheduling</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Journal of Irrigation and Drainage</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>5. Generating and Applying Irrigation Insights</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5.1 Real-Time Generation of Insights</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>â€¢ Examination of the application of predictive models in generating actionable irrigation insights in real-time</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({prediction model} OR {machine intelligence}) AND {irrigation} AND {real-time})</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>10.1031/aea.14800</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NONDESTRUCTIVE QUANTITATIVE ANALYSIS OF WATER POTENTIAL OF TOMATO LEAVES USING ONLINE HYPERSPECTRAL IMAGING SYSTEM</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Error: DOI Not Found
+VISIT DOI.ORG
+DOI Not Found
+10.1031/aea.14800
+This DOI cannot be found in the DOI System.  Possible reasons are:
+The DOI is incorrect in your source. Search for the item by name, title, or other metadata using a search engine.
+The DOI was copied incorrectly. Check to see that the string includes all the characters before and after the slash and no sentence punctuation marks.
+The DOI has not been activated yet. Please try again later, and report the problem if the error continues.
+WHAT CAN I DO NEXT?
+If you believe this DOI is valid, you may report this error to the responsible DOI Registration Agency using the form here.
+You can try to search again from DOI.ORG homepage
+REPORT AN ERROR
+DOI:
+URL of Web Page Listing the DOI:
+Your Email Address:
+Additional Information About the Error:
+The DOI entered is not a valid DOI: it should start with 10 followed by a dot, and contain a slash with no preceding whitespace.
+The email address entered is invalid.
+Please contact us if you wish to report this anyway.
+More information on DOI resolution:
+DOI Resolution Factsheet
+The DOI Handbook
+Privacy Policy
+Copyright © 2023 DOI Foundation.  The content of this site is licensed under a Creative Commons Attribution 4.0 International License.DOI®, DOI.ORG®, and shortDOI® are trademarks of the DOI Foundation.
+</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>C:\Users\bnsoh2\OneDrive - University of Nebraska-Lincoln\Documents\Coding Projects\Automated_Lit_Revs\searches\sec5_results\outline_5\pdfs\10.1031_aea.14800.txt</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Applied Engineering in Agriculture</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
